--- a/config/AlgoCondition.xlsx
+++ b/config/AlgoCondition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MnS\Released\RayRL\SubModules\Config\Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MnS\Projects\RL_Library\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166C564-5BF0-4F6C-A562-CA5E72F96AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBBB6F0-AAFA-4FA0-9E8A-F2DD9E1AA06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6F9EAB9-1D75-4950-B060-5B27334BCE9E}"/>
+    <workbookView xWindow="-16320" yWindow="-6795" windowWidth="16440" windowHeight="28440" xr2:uid="{C6F9EAB9-1D75-4950-B060-5B27334BCE9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
